--- a/artfynd/A 57511-2025 artfynd.xlsx
+++ b/artfynd/A 57511-2025 artfynd.xlsx
@@ -2297,7 +2297,7 @@
         <v>129896455</v>
       </c>
       <c r="B16" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>129912703</v>
       </c>
       <c r="B18" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>129912704</v>
       </c>
       <c r="B19" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>129896090</v>
       </c>
       <c r="B20" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/artfynd/A 57511-2025 artfynd.xlsx
+++ b/artfynd/A 57511-2025 artfynd.xlsx
@@ -2180,7 +2180,7 @@
         <v>129895869</v>
       </c>
       <c r="B15" t="n">
-        <v>57985</v>
+        <v>58043</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/artfynd/A 57511-2025 artfynd.xlsx
+++ b/artfynd/A 57511-2025 artfynd.xlsx
@@ -801,7 +801,7 @@
         <v>129906015</v>
       </c>
       <c r="B3" t="n">
-        <v>57823</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>129912710</v>
       </c>
       <c r="B12" t="n">
-        <v>57823</v>
+        <v>57881</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>129896024</v>
       </c>
       <c r="B13" t="n">
-        <v>57823</v>
+        <v>57881</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>129912709</v>
       </c>
       <c r="B14" t="n">
-        <v>57820</v>
+        <v>57878</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>129912695</v>
       </c>
       <c r="B17" t="n">
-        <v>57823</v>
+        <v>57881</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>129912714</v>
       </c>
       <c r="B21" t="n">
-        <v>57823</v>
+        <v>57881</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
